--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/3.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/3.xlsx
@@ -918,10 +918,10 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>115</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>215.29</v>
       </c>
     </row>
